--- a/Instacart project analysis/Analysis/Final Report.xlsx
+++ b/Instacart project analysis/Analysis/Final Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pakshil Jani\Desktop\career foundry\Chapter-4 Python\Instacart project analysis\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77CAE63-B1C6-432E-8236-A11731D753C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235011C7-B630-48F1-802E-FFCA277AD69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="0" windowWidth="20355" windowHeight="10920" tabRatio="808" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="0" windowWidth="20340" windowHeight="10920" tabRatio="808" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Contents:</t>
   </si>
@@ -96,27 +96,6 @@
     <t>Visualizations</t>
   </si>
   <si>
-    <t xml:space="preserve">Key Question 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Question 2 </t>
-  </si>
-  <si>
-    <t>Key Question 3</t>
-  </si>
-  <si>
-    <t>Key Question 4</t>
-  </si>
-  <si>
-    <t>Key Question 5</t>
-  </si>
-  <si>
-    <t>Key Question 6</t>
-  </si>
-  <si>
-    <t>Key Question 7</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -149,12 +128,102 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>Departments in terms of average order volume</t>
+  </si>
+  <si>
+    <t>Price range of products by instacart</t>
+  </si>
+  <si>
+    <t>Busiest hours as per order volume</t>
+  </si>
+  <si>
+    <t>Busiest days of the week for instacart</t>
+  </si>
+  <si>
+    <t>How often customers place orders</t>
+  </si>
+  <si>
+    <t>Between 0 days to 30 days since last order was placed</t>
+  </si>
+  <si>
+    <t>0=Saturday and 6=Friday</t>
+  </si>
+  <si>
+    <t>Proportion of loyal vs regular vs new customers</t>
+  </si>
+  <si>
+    <t>No. of orders placed- &gt;40=loyal, &lt;10=new, remaining=regular</t>
+  </si>
+  <si>
+    <t>Customer loyalty vs prices and order quantity</t>
+  </si>
+  <si>
+    <t>Significant difference in order quantity of loyal customers</t>
+  </si>
+  <si>
+    <t>Comparing spending pattern vs loyalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New and regular customers are around 4 times </t>
+  </si>
+  <si>
+    <t>higher  spender than loyal customers</t>
+  </si>
+  <si>
+    <t>Which are top 3 departments in terms of order volume?</t>
+  </si>
+  <si>
+    <t>Bulk items, babies and missing items(data issue-please check with data source what do these missing items are)</t>
+  </si>
+  <si>
+    <t>Instacart app is loaded most during which hours?</t>
+  </si>
+  <si>
+    <t>Which are the busiest days so we can have optimum staffing?</t>
+  </si>
+  <si>
+    <t>Saturday and Sunday are the busiest days of the week</t>
+  </si>
+  <si>
+    <t>How often repeat orders are placed?</t>
+  </si>
+  <si>
+    <t>A large number of repeat orders are placed weekly. There is also a large number of orders that are placed 30 days older. Instacart can connect with them to understand why new orders are not placed. Also, opportunity to launch a loyalty program for customers who order every week</t>
+  </si>
+  <si>
+    <t>What portion of customers are loyal and regular</t>
+  </si>
+  <si>
+    <t>A large number of customers are loyal and regular and instacart need to keep them engaged with new products and ensure that they feel appreciated for their business</t>
+  </si>
+  <si>
+    <t>Is there a large difference in orders between loyal and other customers</t>
+  </si>
+  <si>
+    <t>Yes, however loyal customers are buying relatively low price items more. New and regular customers are more likely to buy higher price items than loyal customers and hence any sales promitions should be directed accordingly</t>
+  </si>
+  <si>
+    <t>8 am to 6 pm are the busiest hours when most orders are placed and app will be loaded most during this time</t>
+  </si>
+  <si>
+    <t>When are high priced items bought?</t>
+  </si>
+  <si>
+    <t>Late night or early morning</t>
+  </si>
+  <si>
+    <t>When are high priced items sold during the day so we can maintain inventory</t>
+  </si>
+  <si>
+    <t>Between late night to early morning</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +281,41 @@
       <b/>
       <u/>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -640,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -702,6 +806,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15216,81 +15326,6 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>280811</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>182740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>528461</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>148168</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="280811" y="916518"/>
-          <a:ext cx="7282039" cy="515761"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>In this tab you should include</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> all the visualtions from Exercises 4.9 and 4.10, alongside  the questions from the project brief that they answer. Include any commentary on the relationship between different variables.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -15302,7 +15337,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>464970</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>72838</xdr:rowOff>
+      <xdr:rowOff>60932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15346,11 +15381,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>70905</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171097</xdr:rowOff>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>522111</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>171097</xdr:rowOff>
     </xdr:to>
@@ -15366,9 +15401,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="353127" y="721430"/>
-          <a:ext cx="7203373" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="332843" y="666750"/>
+          <a:ext cx="15038126" cy="111566"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -15470,6 +15505,402 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1677A04-CCD4-4C81-BDD2-A9F449ABC62D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="2405063"/>
+          <a:ext cx="4798219" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>497168</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47031A8-19D3-4C60-8CD4-47D8C44F03B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="2297906"/>
+          <a:ext cx="4104762" cy="2580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>156621</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E4E5DB-C280-4E56-85D0-1A51137B9E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11013281" y="2297906"/>
+          <a:ext cx="4323809" cy="2552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42337</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82955138-2737-4F4C-920E-800096C736D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="261938" y="7060406"/>
+          <a:ext cx="4209524" cy="2571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>70938</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>97317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C7C7C9-28FC-46F3-B7D5-542E8B9C9CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5893594" y="7096125"/>
+          <a:ext cx="4000000" cy="2514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>109002</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>187707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47EBBC7E-83CC-4297-B5C0-308819B5415F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11013281" y="7417594"/>
+          <a:ext cx="4276190" cy="3295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>282814</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>73398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E91C3EE-6D7F-4226-8787-70E3AFC0109B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273844" y="11275219"/>
+          <a:ext cx="4438095" cy="3371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11425</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>187719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7AA151E-D42F-4593-9D04-3A6456133983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5976938" y="11358563"/>
+          <a:ext cx="3857143" cy="3200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>437649</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>83005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC26A1B5-3F3D-42DC-A6DF-8A5FDB7E039C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11013281" y="11334750"/>
+          <a:ext cx="4009524" cy="2714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15520,81 +15951,6 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>280811</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>182747</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>528461</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="280811" y="916525"/>
-          <a:ext cx="7282039" cy="819141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>In this tab you should include</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> any recommendations you would made to Instcart in terms of their marketing strategy based on the questions posed in the brief. Every key question has been covered in the Tasks of the Exercises - here you need to add an item - a visualisation or table/crosstable that is showing the answer in the data, acompanied by a comment from you. Please, list the questions below and add the answer underneath.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -16108,7 +16464,7 @@
     <row r="19" spans="1:5" ht="18">
       <c r="A19" s="32"/>
       <c r="B19" s="32" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
@@ -16140,8 +16496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="Y1:Y6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.5"/>
@@ -16153,18 +16509,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="25:25" ht="17.25">
-      <c r="Y1" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="Y1" s="17"/>
     </row>
     <row r="2" spans="25:25" ht="17.25">
       <c r="Y2" s="17"/>
     </row>
     <row r="6" spans="25:25" ht="8.4499999999999993" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Y1" location="'Title Page'!A1" display="Title page" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16175,7 +16526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -16212,13 +16563,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="45">
@@ -16226,13 +16577,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -16360,7 +16711,7 @@
     </row>
     <row r="7" spans="2:8" ht="60.75" thickTop="1">
       <c r="B7" s="34" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -16489,7 +16840,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickTop="1">
@@ -16588,27 +16939,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="Q1"/>
+  <dimension ref="B1:U56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="42"/>
     <col min="14" max="14" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="17:17">
-      <c r="Q1" s="18" t="s">
-        <v>19</v>
+    <row r="1" spans="2:21">
+      <c r="Q1" s="18"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20">
+      <c r="C35" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="T35" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20">
+      <c r="C36" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L54" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="L55" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="U55" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21">
+      <c r="U56" s="45" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q1" location="'Title Page'!A1" display="Title page" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16620,67 +17029,150 @@
   <dimension ref="B1:Q19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="Q1" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q1" s="18"/>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="19" t="s">
-        <v>28</v>
+    <row r="12" spans="2:17" ht="15.75">
+      <c r="B12" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" t="s">
+      <c r="L12" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
-      <c r="B15" t="s">
-        <v>23</v>
+    <row r="13" spans="2:17" ht="15.75">
+      <c r="B13" s="42" t="s">
+        <v>46</v>
       </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
     </row>
-    <row r="16" spans="2:17">
-      <c r="B16" t="s">
-        <v>24</v>
+    <row r="14" spans="2:17" ht="15.75">
+      <c r="B14" s="42" t="s">
+        <v>48</v>
       </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>25</v>
+    <row r="15" spans="2:17" ht="15.75">
+      <c r="B15" s="42" t="s">
+        <v>49</v>
       </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>26</v>
+    <row r="16" spans="2:17" ht="15.75">
+      <c r="B16" s="42" t="s">
+        <v>51</v>
       </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>27</v>
+    <row r="17" spans="2:14" ht="15.75">
+      <c r="B17" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="2:14" ht="15.75">
+      <c r="B18" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="2:14" ht="15.75">
+      <c r="B19" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q1" location="'Title Page'!A1" display="Title page" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
